--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\web project architecture\web-project-architecture-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8E46E-9DBF-4CF1-8FBC-7CBD9A6FB98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB8D137-CE0B-4627-9861-8FB31EE99D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лекции" sheetId="3" r:id="rId1"/>
-    <sheet name="общее" sheetId="1" r:id="rId2"/>
+    <sheet name="БД" sheetId="1" r:id="rId2"/>
     <sheet name="команды" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="цвыаыва" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>запуск сервера. Основные команды</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>приложение читается и на фронте, и на бэке</t>
+  </si>
+  <si>
+    <t>пакет XAMPP — пакет, включающий в себя MySQL</t>
+  </si>
+  <si>
+    <t>HeidiSQL — визуальный инструмент для удобной работы с БД MySQL</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -262,6 +267,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,80 +561,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.08984375" style="2" customWidth="1"/>
     <col min="6" max="6" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>7050</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -645,19 +653,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.54296875" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.08984375" customWidth="1"/>
     <col min="8" max="8" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1" s="4">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="B1" t="s">
@@ -665,7 +673,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="B2" t="s">
@@ -673,7 +681,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -681,7 +689,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -693,8 +701,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -702,7 +720,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -710,7 +728,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -730,137 +748,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEB6D31-DB4D-4883-A017-0A842AFF352A}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="86.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="86.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -879,16 +897,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="112" style="3" customWidth="1"/>
+    <col min="1" max="1" width="112" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
